--- a/biology/Botanique/Gaulthérie_mucronée/Gaulthérie_mucronée.xlsx
+++ b/biology/Botanique/Gaulthérie_mucronée/Gaulthérie_mucronée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaulth%C3%A9rie_mucron%C3%A9e</t>
+          <t>Gaulthérie_mucronée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaultheria mucronata
 La gaulthérie mucronée ou pernettya mucronée (Gaultheria mucronata, syn. Pernettya mucronata (L. f.) Spreng.) est une espèce de plantes à fleurs de la famille des Ericaceae et du genre Gaultheria originaire du Chili et de l'Argentine (Patagonie jusqu'en Terre de Feu).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gaulth%C3%A9rie_mucron%C3%A9e</t>
+          <t>Gaulthérie_mucronée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau compact de 50 à 80 cm de hauteur (jusqu'à 1,50 m dans son milieu naturel), formant un buisson sempervirent avec un feuillage vert brillant et une floraison blanche au printemps suivie à la fin de l'automne de baies globuleuses jusqu'à 1,5 cm de diamètre, de couleur pourpre ou rose ou blanche. C'est une plante dioïque, ce qui signifie qu'un pied mâle doit croître à côté d'un pied femelle pour produire des fruits. Cette plante préfère des conditions humides et semi-ombragées. Elle résiste au gel.
-Ses baies sont comestibles[1].
+Ses baies sont comestibles.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaulth%C3%A9rie_mucron%C3%A9e</t>
+          <t>Gaulthérie_mucronée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un certain nombre de cultivars ont été sélectionnés pour les jardins, dont les suivants ont gagné un Award of Garden Merit par la Royal Horticultural Society[2]: 
-'Bell's Seedling'[3] (fruits rouge foncé)
-'Crimsonia'[4] (gros fruits cramoisi)
-'Mulberry Wine'[5] (fruits rouge foncé)
-'Wintertime'[6] (fruits blancs)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre de cultivars ont été sélectionnés pour les jardins, dont les suivants ont gagné un Award of Garden Merit par la Royal Horticultural Society: 
+'Bell's Seedling' (fruits rouge foncé)
+'Crimsonia' (gros fruits cramoisi)
+'Mulberry Wine' (fruits rouge foncé)
+'Wintertime' (fruits blancs)
 Certaines variétés sont naines (30 cm maximum).
 			Gaultheria mucronata 'Bell's Seedling'.
 			Gaultheria mucronata 'Wintertime'.
